--- a/mf-intelligence/data/separated_files/sbi/SBI PSU Fund/SBI PSU Fund_Jun_2025.xlsx
+++ b/mf-intelligence/data/separated_files/sbi/SBI PSU Fund/SBI PSU Fund_Jun_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,953 +436,737 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Name of the Instrument / Issuer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name of the Instrument / Issuer</t>
+          <t>Rating / Industry^</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rating / Industry^</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Market value
 (Rs. in Lakhs)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% to AUM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>YTM %</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>YTC % ##</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Notes &amp; Symbols</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>100010</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INE062A01020</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INE062A01020</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>8577500</v>
+      </c>
+      <c r="E2" t="n">
+        <v>70365.52</v>
+      </c>
       <c r="F2" t="n">
-        <v>8577500</v>
-      </c>
-      <c r="G2" t="n">
-        <v>70365.52</v>
-      </c>
-      <c r="H2" t="n">
         <v>12.96</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>100089</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bharat Electronics Ltd.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INE263A01024</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bharat Electronics Ltd.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INE263A01024</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>12975000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>54689.63</v>
+      </c>
       <c r="F3" t="n">
-        <v>12975000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>54689.63</v>
-      </c>
-      <c r="H3" t="n">
         <v>10.08</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
-        <v>100176</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GAIL (India) Ltd.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INE129A01019</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GAIL (India) Ltd.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>INE129A01019</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>25750000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>49141.3</v>
+      </c>
       <c r="F4" t="n">
-        <v>25750000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>49141.3</v>
-      </c>
-      <c r="H4" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>100182</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Power Grid Corporation of India Ltd.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INE752E01010</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Ltd.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>INE752E01010</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>15135554</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45391.53</v>
+      </c>
       <c r="F5" t="n">
-        <v>15135554</v>
-      </c>
-      <c r="G5" t="n">
-        <v>45391.53</v>
-      </c>
-      <c r="H5" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
-        <v>100181</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NTPC Ltd.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INE733E01010</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NTPC Ltd.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INE733E01010</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>12143244</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40667.72</v>
+      </c>
       <c r="F6" t="n">
-        <v>12143244</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40667.72</v>
-      </c>
-      <c r="H6" t="n">
         <v>7.49</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
-        <v>100094</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bharat Petroleum Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INE029A01011</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>INE029A01011</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>9700000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32199.15</v>
+      </c>
       <c r="F7" t="n">
-        <v>9700000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>32199.15</v>
-      </c>
-      <c r="H7" t="n">
         <v>5.93</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="n">
-        <v>100092</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bank of Baroda</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INE028A01039</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>INE028A01039</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27365.8</v>
+      </c>
       <c r="F8" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>27365.8</v>
-      </c>
-      <c r="H8" t="n">
         <v>5.04</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
-        <v>100035</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NMDC Ltd.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INE584A01023</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NMDC Ltd.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>INE584A01023</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Minerals &amp; Mining</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>27900000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19530</v>
+      </c>
       <c r="F9" t="n">
-        <v>27900000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>19530</v>
-      </c>
-      <c r="H9" t="n">
         <v>3.6</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="n">
-        <v>100267</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Oil India Ltd.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INE274J01014</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Oil India Ltd.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>INE274J01014</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Oil</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>3850000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16718.63</v>
+      </c>
       <c r="F10" t="n">
-        <v>3850000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16718.63</v>
-      </c>
-      <c r="H10" t="n">
         <v>3.08</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="n">
-        <v>100733</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>General Insurance Corporation of India</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INE481Y01014</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>General Insurance Corporation of India</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>INE481Y01014</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>Insurance</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>4150000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15983.73</v>
+      </c>
       <c r="F11" t="n">
-        <v>4150000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15983.73</v>
-      </c>
-      <c r="H11" t="n">
         <v>2.94</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="n">
-        <v>101119</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SBI Cards &amp; Payment Services Ltd.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INE018E01016</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SBI Cards &amp; Payment Services Ltd.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>INE018E01016</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15726.15</v>
+      </c>
       <c r="F12" t="n">
-        <v>1650000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>15726.15</v>
-      </c>
-      <c r="H12" t="n">
         <v>2.9</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="n">
-        <v>101550</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Life Insurance Corporation of India</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>INE0J1Y01017</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation of India</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>INE0J1Y01017</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Insurance</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12743.68</v>
+      </c>
       <c r="F13" t="n">
-        <v>1310000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12743.68</v>
-      </c>
-      <c r="H13" t="n">
         <v>2.35</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="n">
-        <v>100164</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Petronet LNG Ltd.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INE347G01014</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Petronet LNG Ltd.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INE347G01014</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>4100000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12377.9</v>
+      </c>
       <c r="F14" t="n">
-        <v>4100000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12377.9</v>
-      </c>
-      <c r="H14" t="n">
         <v>2.28</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="n">
-        <v>100684</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SBI Life Insurance Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INE123W01016</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SBI Life Insurance Co. Ltd.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INE123W01016</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>Insurance</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>590000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10845.97</v>
+      </c>
       <c r="F15" t="n">
-        <v>590000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10845.97</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="n">
-        <v>100033</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Indian Bank</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INE562A01011</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Indian Bank</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INE562A01011</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>1527235</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9826.99</v>
+      </c>
       <c r="F16" t="n">
-        <v>1527235</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9826.99</v>
-      </c>
-      <c r="H16" t="n">
         <v>1.81</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="n">
-        <v>100017</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>National Aluminium Company Ltd.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INE139A01034</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>National Aluminium Company Ltd.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INE139A01034</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Non - Ferrous Metals</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9635</v>
+      </c>
       <c r="F17" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9635</v>
-      </c>
-      <c r="H17" t="n">
         <v>1.78</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="n">
-        <v>100361</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bank of India</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INE084A01016</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bank of India</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INE084A01016</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8892</v>
+      </c>
       <c r="F18" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8892</v>
-      </c>
-      <c r="H18" t="n">
         <v>1.64</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="n">
-        <v>100266</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gujarat State Petronet Ltd.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INE246F01010</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gujarat State Petronet Ltd.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INE246F01010</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>2650000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8733.08</v>
+      </c>
       <c r="F19" t="n">
-        <v>2650000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8733.08</v>
-      </c>
-      <c r="H19" t="n">
         <v>1.61</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="n">
-        <v>100195</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>REC Ltd.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INE020B01018</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>REC Ltd.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INE020B01018</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>2125000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8551</v>
+      </c>
       <c r="F20" t="n">
-        <v>2125000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8551</v>
-      </c>
-      <c r="H20" t="n">
         <v>1.58</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="n">
-        <v>100111</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Oil &amp; Natural Gas Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INE213A01029</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Oil &amp; Natural Gas Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INE213A01029</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Oil</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>3455000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8437.459999999999</v>
+      </c>
       <c r="F21" t="n">
-        <v>3455000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8437.459999999999</v>
-      </c>
-      <c r="H21" t="n">
         <v>1.55</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="n">
-        <v>100088</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bharat Heavy Electricals Ltd.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INE257A01026</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Ltd.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INE257A01026</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7989</v>
+      </c>
       <c r="F22" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7989</v>
-      </c>
-      <c r="H22" t="n">
         <v>1.47</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="n">
-        <v>100129</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Engineers India Ltd.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INE510A01028</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Engineers India Ltd.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INE510A01028</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Construction</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7705.92</v>
+      </c>
       <c r="F23" t="n">
-        <v>3200000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7705.92</v>
-      </c>
-      <c r="H23" t="n">
         <v>1.42</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="n">
-        <v>100169</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Indian Oil Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INE242A01010</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Indian Oil Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INE242A01010</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>4281804</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6292.54</v>
+      </c>
       <c r="F24" t="n">
-        <v>4281804</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6292.54</v>
-      </c>
-      <c r="H24" t="n">
         <v>1.16</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="n">
-        <v>100097</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Coal India Ltd.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INE522F01014</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Coal India Ltd.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INE522F01014</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Consumable Fuels</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6075.23</v>
+      </c>
       <c r="F25" t="n">
-        <v>1550000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6075.23</v>
-      </c>
-      <c r="H25" t="n">
         <v>1.12</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>100112</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Punjab National Bank</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INE160A01022</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Punjab National Bank</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INE160A01022</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>5301205</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5857.83</v>
+      </c>
       <c r="F26" t="n">
-        <v>5301205</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5857.83</v>
-      </c>
-      <c r="H26" t="n">
         <v>1.08</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="n">
-        <v>100130</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gujarat Gas Ltd.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INE844O01030</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gujarat Gas Ltd.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INE844O01030</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5697.6</v>
+      </c>
       <c r="F27" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5697.6</v>
-      </c>
-      <c r="H27" t="n">
         <v>1.05</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="n">
-        <v>1801347</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>182 DAY T-BILL 20.11.25</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IN002025Y081</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>182 DAY T-BILL 20.11.25</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>IN002025Y081</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>Sovereign</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>489.58</v>
+      </c>
       <c r="F28" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G28" t="n">
-        <v>489.58</v>
-      </c>
-      <c r="H28" t="n">
         <v>0.09</v>
       </c>
-      <c r="I28" t="n">
-        <v>5.4701</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
